--- a/data/regression_name_list1336.xlsx
+++ b/data/regression_name_list1336.xlsx
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5608,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
